--- a/public/uploads/sample.xlsx
+++ b/public/uploads/sample.xlsx
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>Simu</t>
+  </si>
+  <si>
     <t>Jina la mkuu wa kaya</t>
   </si>
   <si>
@@ -38,6 +41,9 @@
     <t>Mwandishi</t>
   </si>
   <si>
+    <t>0726388273</t>
+  </si>
+  <si>
     <t>Juma ally</t>
   </si>
   <si>
@@ -48,6 +54,9 @@
   </si>
   <si>
     <t>Kelvin</t>
+  </si>
+  <si>
+    <t>0739288492</t>
   </si>
   <si>
     <t>Amina Jumanne</t>
@@ -57,8 +66,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -130,12 +140,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -156,19 +170,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="20.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -193,51 +207,60 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>25425254</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>43536536</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>10</v>
+      <c r="H3" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/sample.xlsx
+++ b/public/uploads/sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -75,6 +75,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -96,6 +97,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,10 +172,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -239,7 +241,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>43536536</v>
+        <v>435365436</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -260,6 +262,84 @@
         <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>25425554</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>25425674</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>25425754</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>12</v>
       </c>
     </row>
